--- a/CDCF.xlsx
+++ b/CDCF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ec91c370ed981f6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ec91c370ed981f6/Desktop/Ecole/1A/projet application web/Projet-Web-application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F342E2C9-690C-4154-8D1E-C69BEDC6489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{F342E2C9-690C-4154-8D1E-C69BEDC6489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EBBEFD7-F943-4E87-A07D-19B1BF18A9E2}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{9FA0850B-B334-4F7E-B6CD-83BA8A07A0BF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Fonction</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Critère d'appréciation</t>
   </si>
   <si>
-    <t>Niveau de performance</t>
-  </si>
-  <si>
-    <t>Flexibilité</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afficher une carte glissante de la région </t>
   </si>
   <si>
@@ -52,9 +46,6 @@
   </si>
   <si>
     <t>Permettre de faire varier les paramètres de temps, et types de polluants</t>
-  </si>
-  <si>
-    <t>Créer une carte de chaleur</t>
   </si>
   <si>
     <t>la page doit être esthétique</t>
@@ -485,7 +476,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -502,19 +493,15 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -524,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -534,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -544,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -554,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -564,18 +551,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
